--- a/biology/Botanique/Crassula_orbicularis/Crassula_orbicularis.xlsx
+++ b/biology/Botanique/Crassula_orbicularis/Crassula_orbicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassula orbicularis est une espèce de petite plante succulente originaire d'Afrique du Sud (notamment des provinces du Cap-Occidental et du Cap-Oriental, ainsi que du KwaZulu-Natal, où elle fleurit de l'hiver à la haute saison.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Purgosea orbicularis (L.) P.V.Heath (1993),
 Crassula sedoides Mill. (1768),</t>
@@ -542,7 +556,9 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassula orbicularis  var. rosularis Haw. (1821).
 			Crassula orbicularis var. rosularis Inflorescene immature et feuillage
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassula orbicularis pousse en rosettes et atteint de 2 à 4 cm. Des tiges de côté font germer d'autres rosettes sur un diamètre d'une cinquantaine de centimètres. Ces rosettes formées de dix à douze feuilles peuvent atteindre 6 cm de diamètre.
 Le dessous des feuilles lancéolées est de teinte pourprée. Elles ont de 30 à 45 mm de longueur et de 10 à 16 mm de largeur.
